--- a/Suppl-Table-S3-Top-15-BP-GO-terms-Mmusculus-Mouse.xlsx
+++ b/Suppl-Table-S3-Top-15-BP-GO-terms-Mmusculus-Mouse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablonsilva/Google Drive/Doutorado/Biology of Ageing/Textos/RPV/Bioinformatics/Bio v4/Supplementary Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dasilp4\Documents\Github\RPV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B3DDE2-DB6C-634F-BEA0-B639CF96A262}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D499BCDB-3679-4DDB-9A41-BC7AE51A623A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3165" yWindow="1185" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>GO:0016070</t>
   </si>
@@ -129,11 +129,8 @@
     <t>protein modification process</t>
   </si>
   <si>
-    <t>Simpson's paradox frequency</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">Supplementary Table S4: Top-15 biological process gene ontology terms for the </t>
+      <t xml:space="preserve">Supplementary Table S3: Top-15 biological process gene ontology terms for the </t>
     </r>
     <r>
       <rPr>
@@ -187,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -256,7 +253,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -268,10 +265,34 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -282,7 +303,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -292,38 +313,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -334,42 +334,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -652,283 +658,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F18"/>
+  <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="59.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="10">
         <v>31</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="1">
         <v>0.28439999999999999</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="11">
         <v>29</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="1">
         <v>0.2661</v>
       </c>
-      <c r="F5" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="11">
         <v>27</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="1">
         <v>0.2477</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="11">
         <v>26</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="1">
         <v>0.23849999999999999</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="11">
         <v>26</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="1">
         <v>0.23849999999999999</v>
       </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="11">
         <v>26</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="1">
         <v>0.23849999999999999</v>
       </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="11">
         <v>26</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="1">
         <v>0.23849999999999999</v>
       </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="11">
         <v>25</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="1">
         <v>0.22939999999999999</v>
       </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="11">
         <v>25</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="1">
         <v>0.22939999999999999</v>
       </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="11">
         <v>24</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="1">
         <v>0.22020000000000001</v>
       </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="11">
         <v>24</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="1">
         <v>0.22020000000000001</v>
       </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="11">
         <v>24</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="1">
         <v>0.22020000000000001</v>
       </c>
-      <c r="F15" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="11">
         <v>23</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="1">
         <v>0.21099999999999999</v>
       </c>
-      <c r="F16" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="11">
         <v>23</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="1">
         <v>0.21099999999999999</v>
       </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="12">
         <v>22</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="2">
         <v>0.20180000000000001</v>
       </c>
-      <c r="F18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>